--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143979.065481279</v>
+        <v>2234461.854721374</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10731822.83646701</v>
+        <v>10737937.89180977</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3059782.097200738</v>
+        <v>3065091.909774641</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8719447.698979625</v>
+        <v>8717395.187922228</v>
       </c>
     </row>
     <row r="11">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1212,61 +1214,61 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1288,76 +1290,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D10" t="n">
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>289.0646388301934</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>266.0286480233236</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>219.6327091950332</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>196.8095788380687</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>112.8452622460479</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>120.564383124314</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>90.5738815046802</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>60.61620153653799</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>79.76470074482877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>329.3740962725142</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>116.6672710896561</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>155.8159648506263</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>90.50519121882219</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>36.87430119103905</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>1.341304956639441</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>145.6878961026934</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2372,10 +2374,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>63.65378420541789</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -2524,16 +2526,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.94291362793486</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7988028687049</v>
+        <v>174.2139291334765</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,7 +2848,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589007</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>37.5823588922277</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>130.892106905258</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>359.5533803416199</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>27.87379486625391</v>
       </c>
       <c r="D34" t="n">
-        <v>89.02140001904071</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3235,7 +3237,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>261.7337600035931</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>192.6071998492471</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3326,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>119.9011699055444</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>191.0375394480909</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>339.0451250286519</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -3560,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>84.22290965228891</v>
       </c>
     </row>
     <row r="39">
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>68.63092356069556</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>127.7745999710421</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>342.8171881768161</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>228.7010876911029</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>71.98153210089512</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>206.8753464402806</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>27.3247896121121</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>191.1326684784303</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>23.80546641123142</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>215.9500501198493</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
         <v>14.44108515774386</v>
@@ -4802,52 +4804,52 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K8" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="K8" t="n">
-        <v>14.16465422792556</v>
-      </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P8" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C9" t="n">
         <v>13.6131814684388</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F9" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G9" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4908,25 +4910,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
         <v>0.5500836593369149</v>
@@ -4963,19 +4965,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L10" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
+        <v>14.16465422792556</v>
+      </c>
+      <c r="O10" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N10" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="O10" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
@@ -4996,16 +4998,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W10" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X10" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1127.748203495403</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C11" t="n">
-        <v>1127.748203495403</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D11" t="n">
-        <v>769.482504888653</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
-        <v>769.482504888653</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>358.4966000990455</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>358.4966000990455</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5057,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559525</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686063</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064739</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080118</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986292</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.2513404403938</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C13" t="n">
-        <v>361.3151575124869</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>939.8893561686509</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X13" t="n">
-        <v>711.8998052706336</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.8998052706336</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1311.909787855437</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>942.9472709150257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5276,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5294,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.509627919559</v>
+        <v>2161.568951662578</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>717.3698800184442</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C16" t="n">
-        <v>548.4336970905373</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="D16" t="n">
-        <v>456.9449278938906</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="E16" t="n">
-        <v>456.9449278938906</v>
+        <v>273.9577896148691</v>
       </c>
       <c r="F16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>1127.007895746701</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>899.0183448486839</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y16" t="n">
-        <v>899.0183448486839</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1698.509627919559</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1698.509627919559</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5546,19 +5548,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.509627919559</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5585,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5597,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>777.020896318616</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="C19" t="n">
-        <v>608.0847133907091</v>
+        <v>725.9304417640992</v>
       </c>
       <c r="D19" t="n">
-        <v>457.9680739783734</v>
+        <v>575.8138023517635</v>
       </c>
       <c r="E19" t="n">
-        <v>310.0549803959803</v>
+        <v>427.9007087693703</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>427.9007087693703</v>
       </c>
       <c r="G19" t="n">
         <v>310.0549803959803</v>
@@ -5671,16 +5673,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U19" t="n">
-        <v>1769.904684603011</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V19" t="n">
-        <v>1515.220196397124</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W19" t="n">
-        <v>1225.803026360164</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X19" t="n">
-        <v>997.8134754621461</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y19" t="n">
-        <v>777.020896318616</v>
+        <v>907.5789065943389</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1681.836054204826</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C20" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D20" t="n">
         <v>1232.150970528558</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3288.359052729332</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3082.381305113554</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3082.381305113554</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X20" t="n">
-        <v>2071.975386180638</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y20" t="n">
-        <v>1681.836054204826</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>630.9252167254029</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="C22" t="n">
-        <v>630.9252167254029</v>
+        <v>511.7013404397339</v>
       </c>
       <c r="D22" t="n">
-        <v>480.8085773130672</v>
+        <v>361.5847010273982</v>
       </c>
       <c r="E22" t="n">
-        <v>332.8954837306741</v>
+        <v>213.6716074450051</v>
       </c>
       <c r="F22" t="n">
-        <v>331.5406302391191</v>
+        <v>213.6716074450051</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218339</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1356.67533979849</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>1101.990851592603</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>812.5736815556427</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>812.5736815556427</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y22" t="n">
-        <v>812.5736815556427</v>
+        <v>680.6375233676408</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5987,25 +5989,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888351</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.398683947134</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.363334276588</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3479.304391480594</v>
+        <v>3519.911947530157</v>
       </c>
       <c r="C25" t="n">
-        <v>3479.304391480594</v>
+        <v>3519.911947530157</v>
       </c>
       <c r="D25" t="n">
-        <v>3329.187752068259</v>
+        <v>3455.615195807513</v>
       </c>
       <c r="E25" t="n">
-        <v>3329.187752068259</v>
+        <v>3307.70210222512</v>
       </c>
       <c r="F25" t="n">
-        <v>3182.297804570348</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G25" t="n">
-        <v>3014.594967945067</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H25" t="n">
         <v>3014.594967945067</v>
@@ -6172,25 +6174,25 @@
         <v>4688.221265177249</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004075</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.768765573601</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699244</v>
+        <v>4466.454649746775</v>
       </c>
       <c r="V25" t="n">
-        <v>3950.370026347795</v>
+        <v>4211.770161540888</v>
       </c>
       <c r="W25" t="n">
-        <v>3660.952856310834</v>
+        <v>3922.352991503927</v>
       </c>
       <c r="X25" t="n">
-        <v>3660.952856310834</v>
+        <v>3922.352991503927</v>
       </c>
       <c r="Y25" t="n">
-        <v>3660.952856310834</v>
+        <v>3701.560412360397</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6208,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195856</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254639</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>679.6423705955727</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="C28" t="n">
-        <v>510.7061876676659</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="D28" t="n">
-        <v>360.5895482553301</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>360.5895482553301</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
         <v>192.8867116300491</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.890966501056</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.473796464095</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="X28" t="n">
-        <v>1025.484245566078</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="Y28" t="n">
-        <v>804.6916664225474</v>
+        <v>977.5834419091663</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6446,19 +6448,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277728</v>
@@ -6467,31 +6469,31 @@
         <v>785.6651881176192</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195856</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667297</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996751</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353929</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6506,7 +6508,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390123</v>
@@ -6573,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.8920075170264</v>
+        <v>3942.370854773037</v>
       </c>
       <c r="C31" t="n">
-        <v>523.9558245891195</v>
+        <v>3773.43467184513</v>
       </c>
       <c r="D31" t="n">
-        <v>523.9558245891195</v>
+        <v>3623.318032432794</v>
       </c>
       <c r="E31" t="n">
-        <v>523.9558245891195</v>
+        <v>3475.404938850401</v>
       </c>
       <c r="F31" t="n">
-        <v>377.0658770912091</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839438</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>4645.83747302047</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>4645.83747302047</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384227</v>
+        <v>4391.152984814584</v>
       </c>
       <c r="W31" t="n">
-        <v>874.5404723472661</v>
+        <v>4391.152984814584</v>
       </c>
       <c r="X31" t="n">
-        <v>874.5404723472661</v>
+        <v>4163.163433916567</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.5404723472661</v>
+        <v>3942.370854773037</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2373.666273030839</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2004.703756090427</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.438057483677</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1260.649804885433</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>849.6639000958251</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>434.5914499408216</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.0078495495888</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>283.8900817480829</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>617.7094554379293</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1482.228271091284</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422545</v>
+        <v>2460.778573921112</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.758180993044</v>
+        <v>3168.505094453758</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.722831322499</v>
+        <v>4048.469744783213</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4443.24411114039</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4691.530472896073</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4750.547539452875</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4640.25687097997</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4434.279123364192</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4180.748646638029</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3849.685759294458</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3496.917104024344</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3123.451345763264</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.266113094961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.0426888379828</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>795.5896595568558</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>646.6552498956046</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.417794890149</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>340.883236917034</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>204.5201367496521</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.0182423875196</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>188.6882202796748</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>426.9524192600219</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>793.6505795726871</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1240.926904795003</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1714.449948349457</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.411227767512</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2435.910819243615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2593.552376890215</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.408023482731</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2463.970136976211</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.327136654066</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.259289788482</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.107181556739</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1553.869824828538</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.018324623005</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.258025858051</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>647.524957736193</v>
+        <v>3378.730427051652</v>
       </c>
       <c r="C34" t="n">
-        <v>478.5887748082861</v>
+        <v>3350.5750787019</v>
       </c>
       <c r="D34" t="n">
-        <v>388.668168728447</v>
+        <v>3350.5750787019</v>
       </c>
       <c r="E34" t="n">
-        <v>388.668168728447</v>
+        <v>3350.5750787019</v>
       </c>
       <c r="F34" t="n">
-        <v>241.7782212305366</v>
+        <v>3203.68513120399</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>3035.982294578709</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>2889.765107796567</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2889.765107796567</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>2934.887740243502</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>3138.874923192378</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3455.434721640874</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3799.591767240423</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4141.000143946288</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>4440.329742866701</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4672.93724330036</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>4750.547539452875</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>4660.717082210403</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>4660.717082210403</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689057</v>
+        <v>4660.717082210403</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814701</v>
+        <v>4371.614215336046</v>
       </c>
       <c r="V34" t="n">
-        <v>1385.724257814701</v>
+        <v>4116.929727130159</v>
       </c>
       <c r="W34" t="n">
-        <v>1096.30708777774</v>
+        <v>3827.512557093199</v>
       </c>
       <c r="X34" t="n">
-        <v>868.3175368797231</v>
+        <v>3599.523006195182</v>
       </c>
       <c r="Y34" t="n">
-        <v>647.524957736193</v>
+        <v>3378.730427051652</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2240.582457090718</v>
+        <v>1795.666214589422</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1426.70369764901</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
         <v>1232.150970528558</v>
@@ -6932,13 +6934,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136264</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.7846764101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.72178906653</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2630.72178906653</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2630.72178906653</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y35" t="n">
-        <v>2240.582457090718</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556936</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.643104275809</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614558</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609102</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635987</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064732</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.0643955080111</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.9541770656748</v>
+        <v>652.8944183884515</v>
       </c>
       <c r="C37" t="n">
-        <v>529.0179941377679</v>
+        <v>483.9582354605446</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>333.8415960482089</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>333.8415960482089</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>333.8415960482089</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7122,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U37" t="n">
-        <v>1644.496879282292</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V37" t="n">
-        <v>1389.812391076405</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W37" t="n">
-        <v>1100.395221039445</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X37" t="n">
-        <v>1100.395221039445</v>
+        <v>873.6869975319817</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.6026418959145</v>
+        <v>652.8944183884515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1979.067756754389</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C38" t="n">
-        <v>1610.105239813978</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D38" t="n">
-        <v>1251.839541207227</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>866.0512886089828</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7172,10 +7174,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7187,7 +7189,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296684</v>
@@ -7208,16 +7210,16 @@
         <v>2755.806928794323</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W38" t="n">
-        <v>2755.806928794323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2755.806928794323</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y38" t="n">
-        <v>2365.667596818511</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.0519063245722</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C40" t="n">
-        <v>310.7277411117484</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D40" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E40" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F40" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218339</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415546</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335303</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="W40" t="n">
-        <v>782.4929502983421</v>
+        <v>1157.088627004001</v>
       </c>
       <c r="X40" t="n">
-        <v>782.4929502983421</v>
+        <v>1157.088627004001</v>
       </c>
       <c r="Y40" t="n">
-        <v>561.7003711548119</v>
+        <v>1028.023374507999</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1624.638712032429</v>
+        <v>1848.950422814785</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1848.950422814785</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539435</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.24380226932</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008241</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y41" t="n">
-        <v>1624.638712032429</v>
+        <v>2235.550262878907</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7509,31 +7511,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.9541770656748</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V43" t="n">
-        <v>1134.908724368016</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W43" t="n">
-        <v>925.9437279636921</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>697.9541770656748</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.9541770656748</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1118.846486362072</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C44" t="n">
-        <v>749.8839694216604</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D44" t="n">
-        <v>749.8839694216604</v>
+        <v>936.9705155339545</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>551.1822629357102</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919558</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y44" t="n">
-        <v>1505.446326426194</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7721,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7743,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>627.8744564335971</v>
+        <v>2097.796235700527</v>
       </c>
       <c r="C46" t="n">
-        <v>627.8744564335971</v>
+        <v>1928.86005277262</v>
       </c>
       <c r="D46" t="n">
-        <v>477.7578170212613</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U46" t="n">
-        <v>1399.965665574462</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V46" t="n">
-        <v>1145.281177368575</v>
+        <v>3017.644000609274</v>
       </c>
       <c r="W46" t="n">
-        <v>855.8640073316144</v>
+        <v>2728.226830572314</v>
       </c>
       <c r="X46" t="n">
-        <v>627.8744564335971</v>
+        <v>2500.237279674297</v>
       </c>
       <c r="Y46" t="n">
-        <v>627.8744564335971</v>
+        <v>2279.444700530767</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>160.2261912182079</v>
+        <v>160.049393367323</v>
       </c>
       <c r="K2" t="n">
-        <v>188.8864977494874</v>
+        <v>188.621523601126</v>
       </c>
       <c r="L2" t="n">
-        <v>197.055896017688</v>
+        <v>196.7271721560287</v>
       </c>
       <c r="M2" t="n">
-        <v>187.2733221743576</v>
+        <v>186.9075535399543</v>
       </c>
       <c r="N2" t="n">
-        <v>185.6431878114975</v>
+        <v>185.2715006581902</v>
       </c>
       <c r="O2" t="n">
-        <v>188.7675588853738</v>
+        <v>188.4165852463125</v>
       </c>
       <c r="P2" t="n">
-        <v>195.9582400339679</v>
+        <v>195.6586921530912</v>
       </c>
       <c r="Q2" t="n">
-        <v>195.8158173809995</v>
+        <v>195.5908693974388</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>114.4375480494518</v>
+        <v>114.3322484606514</v>
       </c>
       <c r="K3" t="n">
-        <v>116.6477295620755</v>
+        <v>116.4677557929437</v>
       </c>
       <c r="L3" t="n">
-        <v>110.0568220088691</v>
+        <v>109.8148250661288</v>
       </c>
       <c r="M3" t="n">
-        <v>108.8787281462186</v>
+        <v>108.5963291282991</v>
       </c>
       <c r="N3" t="n">
-        <v>97.20623731789887</v>
+        <v>96.91636403827954</v>
       </c>
       <c r="O3" t="n">
-        <v>111.3689539403799</v>
+        <v>111.1037765208702</v>
       </c>
       <c r="P3" t="n">
-        <v>108.9117537382567</v>
+        <v>108.6989254806458</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.2280538281217</v>
+        <v>123.0857837741572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>118.5256066269315</v>
+        <v>118.3866878860966</v>
       </c>
       <c r="M4" t="n">
-        <v>121.6774387079566</v>
+        <v>121.5309683735909</v>
       </c>
       <c r="N4" t="n">
-        <v>110.8473263234363</v>
+        <v>110.7043387262446</v>
       </c>
       <c r="O4" t="n">
-        <v>122.9037186533127</v>
+        <v>122.7716464640929</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4198798788592</v>
+        <v>124.3068693048059</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>94.63316322227178</v>
+        <v>87.75711748056034</v>
       </c>
       <c r="K8" t="n">
         <v>87.15018762786912</v>
@@ -8459,7 +8461,7 @@
         <v>62.31266440775192</v>
       </c>
       <c r="M8" t="n">
-        <v>37.34551476705317</v>
+        <v>43.94374047879647</v>
       </c>
       <c r="N8" t="n">
         <v>33.28939173564609</v>
@@ -8471,7 +8473,7 @@
         <v>80.05022839850571</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.2083294700222</v>
+        <v>110.4861494999904</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>78.15150993587676</v>
+        <v>71.27546419416532</v>
       </c>
       <c r="K9" t="n">
         <v>42.87685349782204</v>
       </c>
       <c r="L9" t="n">
-        <v>10.86277524892485</v>
+        <v>17.46100096066813</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>2.673277653404995</v>
       </c>
       <c r="P9" t="n">
-        <v>28.27211644960708</v>
+        <v>28.54993647957522</v>
       </c>
       <c r="Q9" t="n">
         <v>64.91185269891416</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>78.60704137344501</v>
+        <v>71.73099563173358</v>
       </c>
       <c r="L10" t="n">
         <v>68.45914756601975</v>
       </c>
       <c r="M10" t="n">
-        <v>68.23777703363946</v>
+        <v>68.51559706360761</v>
       </c>
       <c r="N10" t="n">
         <v>52.23700570813995</v>
       </c>
       <c r="O10" t="n">
-        <v>75.64364695151268</v>
+        <v>75.36582692154452</v>
       </c>
       <c r="P10" t="n">
-        <v>78.09707910265161</v>
+        <v>84.97312484436304</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>105.1996354507103</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>146.071306538859</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>272.8828616575889</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>285.0508825989998</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10117,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.017475755657642</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>226.0494095077354</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,10 +10357,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>361.2819237492096</v>
+        <v>162.5734378523874</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.05743536566624</v>
+        <v>15.05535229698028</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.543125557127041</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>61.72361044681134</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>66.89028914155776</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>21.77507451402607</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>269.8885794174327</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.118658496369</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>58.04159151353215</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.80484648639325</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23732,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>56.86384238353941</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>49.35853716937208</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3958733549866</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7677005521854</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24017,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>72.31346059713681</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>144.0797430662918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>20.3379121563348</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>84.96168881279448</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>217.1947296958931</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.03317731323237</v>
+        <v>5.618051048460785</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>128.4434493668005</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>88.65684237091116</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>26.68455831443373</v>
       </c>
     </row>
     <row r="33">
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.3730262323739</v>
       </c>
       <c r="D34" t="n">
-        <v>59.59407299917164</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>103.5391317674144</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>162.0758417714358</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>46.1246383534838</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>95.17429875752202</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>67.83092071305958</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>302.0150290037647</v>
       </c>
     </row>
     <row r="39">
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>98.61589753793227</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>90.81005338105268</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>22.45570359419145</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>125.98195392958</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.95062056915222</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>79.64765189631038</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>379.5512561295993</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>195.1052701776233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>262.4063717943815</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>36.18759320397874</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>867823.3266121825</v>
+        <v>867718.9369113959</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674093.5024684801</v>
+        <v>674093.5024684804</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>674093.5024684801</v>
+        <v>674093.50246848</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674093.5024684801</v>
+        <v>674093.5024684803</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>826376.2195981466</v>
+        <v>826376.2195981467</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>826376.2195981466</v>
+        <v>823492.5240936975</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674093.50246848</v>
+        <v>674093.5024684804</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674093.50246848</v>
+        <v>674093.5024684801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674093.50246848</v>
+        <v>674093.5024684801</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674093.5024684801</v>
+        <v>674093.5024684803</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634954.2951953058</v>
+        <v>634954.4236998128</v>
       </c>
       <c r="C2" t="n">
         <v>634997.38795516</v>
@@ -26320,40 +26322,40 @@
         <v>635855.3354508887</v>
       </c>
       <c r="E2" t="n">
+        <v>528545.5034049267</v>
+      </c>
+      <c r="F2" t="n">
+        <v>528545.5034049272</v>
+      </c>
+      <c r="G2" t="n">
         <v>528545.503404927</v>
       </c>
-      <c r="F2" t="n">
-        <v>528545.5034049271</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>528545.5034049269</v>
       </c>
-      <c r="H2" t="n">
-        <v>528545.5034049271</v>
-      </c>
       <c r="I2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="J2" t="n">
         <v>615476.7696748236</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748237</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="L2" t="n">
-        <v>615476.7696748239</v>
+        <v>613830.5992724063</v>
       </c>
       <c r="M2" t="n">
+        <v>528545.5034049271</v>
+      </c>
+      <c r="N2" t="n">
         <v>528545.5034049269</v>
       </c>
-      <c r="N2" t="n">
-        <v>528545.5034049271</v>
-      </c>
       <c r="O2" t="n">
-        <v>528545.5034049269</v>
+        <v>528545.5034049272</v>
       </c>
       <c r="P2" t="n">
-        <v>528545.5034049267</v>
+        <v>528545.503404927</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58798.61461382697</v>
+        <v>59297.92354016544</v>
       </c>
       <c r="C3" t="n">
-        <v>158227.2310848455</v>
+        <v>157755.3905150922</v>
       </c>
       <c r="D3" t="n">
         <v>35221.70711368781</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736066</v>
+        <v>96558.96659736069</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.265292815576</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>114986.1981226573</v>
+        <v>116699.7362256748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410321.6508050892</v>
+        <v>410195.6265708354</v>
       </c>
       <c r="C4" t="n">
         <v>368187.1026115649</v>
       </c>
       <c r="D4" t="n">
-        <v>358961.1152399345</v>
+        <v>358961.1152399344</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>52859.64909820937</v>
+        <v>52859.64909820936</v>
       </c>
       <c r="J4" t="n">
-        <v>52859.64909820936</v>
+        <v>52859.64909820933</v>
       </c>
       <c r="K4" t="n">
-        <v>52859.6490982093</v>
+        <v>52859.64909820935</v>
       </c>
       <c r="L4" t="n">
-        <v>52859.64909820935</v>
+        <v>52043.6913368089</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091495</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34957.81223103199</v>
+        <v>34969.10819174877</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26476,7 +26478,7 @@
         <v>40006.06676764524</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26494,22 +26496,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>95965.4546726176</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130876.2175453577</v>
+        <v>130491.7653970633</v>
       </c>
       <c r="C6" t="n">
-        <v>69837.24942760298</v>
+        <v>70309.08999735618</v>
       </c>
       <c r="D6" t="n">
-        <v>201666.4463296212</v>
+        <v>201666.4463296213</v>
       </c>
       <c r="E6" t="n">
-        <v>-457585.4420383295</v>
+        <v>-457585.4420383297</v>
       </c>
       <c r="F6" t="n">
         <v>444468.7597414425</v>
       </c>
       <c r="G6" t="n">
-        <v>444468.759741442</v>
+        <v>444468.7597414422</v>
       </c>
       <c r="H6" t="n">
         <v>444468.7597414423</v>
       </c>
       <c r="I6" t="n">
-        <v>369674.6357255403</v>
+        <v>369674.63572554</v>
       </c>
       <c r="J6" t="n">
         <v>466233.6023229007</v>
       </c>
       <c r="K6" t="n">
-        <v>466233.6023229009</v>
+        <v>466233.6023229007</v>
       </c>
       <c r="L6" t="n">
-        <v>464493.3370300853</v>
+        <v>465821.4532629799</v>
       </c>
       <c r="M6" t="n">
-        <v>329482.5616187848</v>
+        <v>327769.0235157675</v>
       </c>
       <c r="N6" t="n">
-        <v>444468.7597414424</v>
+        <v>444468.7597414422</v>
       </c>
       <c r="O6" t="n">
-        <v>444468.7597414421</v>
+        <v>444468.7597414425</v>
       </c>
       <c r="P6" t="n">
-        <v>444468.759741442</v>
+        <v>444468.7597414422</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.01890968036645</v>
+        <v>61.53707301599857</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26796,7 +26798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26805,7 +26807,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26817,19 +26819,19 @@
         <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>1194.51293060493</v>
+        <v>1187.636884863219</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022923</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.01890968036645</v>
+        <v>61.53707301599857</v>
       </c>
       <c r="C3" t="n">
-        <v>173.7611284456277</v>
+        <v>173.2429651099956</v>
       </c>
       <c r="D3" t="n">
         <v>38.63295208268428</v>
@@ -27018,7 +27020,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605811</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026378</v>
+        <v>363.111475202638</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711778</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.4139344579435</v>
+        <v>468.2899801996549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605812</v>
+        <v>824.5254096605811</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>336.9626014775197</v>
+        <v>336.9412682503396</v>
       </c>
       <c r="I2" t="n">
-        <v>201.0188784530096</v>
+        <v>200.9385709474942</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.4601567945795</v>
+        <v>134.3293062312352</v>
       </c>
       <c r="S2" t="n">
-        <v>203.4302468552248</v>
+        <v>203.3827789275436</v>
       </c>
       <c r="T2" t="n">
-        <v>222.0220394048316</v>
+        <v>222.0129207716589</v>
       </c>
       <c r="U2" t="n">
-        <v>251.326028735879</v>
+        <v>251.3258620903841</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2122689423887</v>
+        <v>137.2111544023838</v>
       </c>
       <c r="H3" t="n">
-        <v>110.9678627354005</v>
+        <v>110.9570986253528</v>
       </c>
       <c r="I3" t="n">
-        <v>84.87777963452001</v>
+        <v>84.83940621768311</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>92.00893145985759</v>
+        <v>91.93973221288392</v>
       </c>
       <c r="S3" t="n">
-        <v>169.2452929670798</v>
+        <v>169.2245908753213</v>
       </c>
       <c r="T3" t="n">
-        <v>199.6357062608947</v>
+        <v>199.6312138825414</v>
       </c>
       <c r="U3" t="n">
-        <v>225.932747329605</v>
+        <v>225.9326740046046</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8809452590351</v>
+        <v>167.8800108661348</v>
       </c>
       <c r="H4" t="n">
-        <v>161.2488693325642</v>
+        <v>161.2405617302323</v>
       </c>
       <c r="I4" t="n">
-        <v>152.1414494645919</v>
+        <v>152.1133497217349</v>
       </c>
       <c r="J4" t="n">
-        <v>85.57976928742343</v>
+        <v>85.51370770937079</v>
       </c>
       <c r="K4" t="n">
-        <v>9.485530092848705</v>
+        <v>9.376970626793319</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.94818788995906</v>
+        <v>76.8699452262786</v>
       </c>
       <c r="R4" t="n">
-        <v>172.345858143086</v>
+        <v>172.3038444404953</v>
       </c>
       <c r="S4" t="n">
-        <v>222.0990037770171</v>
+        <v>222.0827198571088</v>
       </c>
       <c r="T4" t="n">
-        <v>227.4754437307442</v>
+        <v>227.4714513247156</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3130274965224</v>
+        <v>286.3129765296368</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>359.2164706817081</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>74.76836018372603</v>
+        <v>80.82478127302545</v>
       </c>
       <c r="S8" t="n">
         <v>183.9732413877317</v>
@@ -27932,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>141.3886444753393</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>129.8793755557673</v>
+        <v>136.7554212974788</v>
       </c>
       <c r="H9" t="n">
-        <v>106.555676270086</v>
+        <v>99.67963052837456</v>
       </c>
       <c r="I9" t="n">
-        <v>63.09217427968049</v>
+        <v>69.14859536897993</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27982,13 @@
         <v>63.64430312062375</v>
       </c>
       <c r="S9" t="n">
-        <v>160.7595483346515</v>
+        <v>153.88350259294</v>
       </c>
       <c r="T9" t="n">
-        <v>197.794289657069</v>
+        <v>190.9182439153576</v>
       </c>
       <c r="U9" t="n">
-        <v>219.026645821781</v>
+        <v>225.9026915634925</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28031,7 @@
         <v>157.843600303766</v>
       </c>
       <c r="I10" t="n">
-        <v>133.7473771919352</v>
+        <v>140.6234229336467</v>
       </c>
       <c r="J10" t="n">
         <v>58.50126495514995</v>
@@ -28068,16 +28070,16 @@
         <v>286.2921362754868</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>246.0812222345286</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4665772472916</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2453021494688097</v>
+        <v>0.2473852181547679</v>
       </c>
       <c r="H2" t="n">
-        <v>2.512200638247447</v>
+        <v>2.533533865427518</v>
       </c>
       <c r="I2" t="n">
-        <v>9.457011117396293</v>
+        <v>9.5373186229117</v>
       </c>
       <c r="J2" t="n">
-        <v>20.8197133084784</v>
+        <v>20.99651115936325</v>
       </c>
       <c r="K2" t="n">
-        <v>31.20335329549312</v>
+        <v>31.46832744385459</v>
       </c>
       <c r="L2" t="n">
-        <v>38.71051895229921</v>
+        <v>39.03924281395857</v>
       </c>
       <c r="M2" t="n">
-        <v>43.07291105291515</v>
+        <v>43.43867968731843</v>
       </c>
       <c r="N2" t="n">
-        <v>43.76987578509341</v>
+        <v>44.14156293840067</v>
       </c>
       <c r="O2" t="n">
-        <v>41.33065253631293</v>
+        <v>41.68162617537419</v>
       </c>
       <c r="P2" t="n">
-        <v>35.27475572130169</v>
+        <v>35.57430360217835</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.48987249344994</v>
+        <v>26.71482047701071</v>
       </c>
       <c r="R2" t="n">
-        <v>15.40896114657013</v>
+        <v>15.53981170991446</v>
       </c>
       <c r="S2" t="n">
-        <v>5.589822731020505</v>
+        <v>5.63729065870178</v>
       </c>
       <c r="T2" t="n">
-        <v>1.073810159299715</v>
+        <v>1.082928792472497</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01962417195750477</v>
+        <v>0.01979081745238143</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1312482208219203</v>
+        <v>0.1323627608268649</v>
       </c>
       <c r="H3" t="n">
-        <v>1.267581501095915</v>
+        <v>1.278345611143669</v>
       </c>
       <c r="I3" t="n">
-        <v>4.518853216895063</v>
+        <v>4.557226633731971</v>
       </c>
       <c r="J3" t="n">
-        <v>12.40007861721485</v>
+        <v>12.50537820601533</v>
       </c>
       <c r="K3" t="n">
-        <v>21.19370941228351</v>
+        <v>21.37368318141528</v>
       </c>
       <c r="L3" t="n">
-        <v>28.49755777100511</v>
+        <v>28.73955471374537</v>
       </c>
       <c r="M3" t="n">
-        <v>33.25530577579971</v>
+        <v>33.53770479371921</v>
       </c>
       <c r="N3" t="n">
-        <v>34.13547476543444</v>
+        <v>34.42534804505377</v>
       </c>
       <c r="O3" t="n">
-        <v>31.22729050406452</v>
+        <v>31.49246792357429</v>
       </c>
       <c r="P3" t="n">
-        <v>25.06265367607353</v>
+        <v>25.2754819336844</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.75372025789986</v>
+        <v>16.89599031186436</v>
       </c>
       <c r="R3" t="n">
-        <v>8.148902692785546</v>
+        <v>8.218101939759208</v>
       </c>
       <c r="S3" t="n">
-        <v>2.437878136758035</v>
+        <v>2.458580228516545</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5290224339269505</v>
+        <v>0.5335148122802138</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00863475136986318</v>
+        <v>0.008708076370188481</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1100340994236116</v>
+        <v>0.1109684923239318</v>
       </c>
       <c r="H4" t="n">
-        <v>0.978303174875384</v>
+        <v>0.986610777207322</v>
       </c>
       <c r="I4" t="n">
-        <v>3.30902546266643</v>
+        <v>3.337125205523333</v>
       </c>
       <c r="J4" t="n">
-        <v>7.779410829249341</v>
+        <v>7.845472407301981</v>
       </c>
       <c r="K4" t="n">
-        <v>12.78396173303415</v>
+        <v>12.89252119908953</v>
       </c>
       <c r="L4" t="n">
-        <v>16.35906965430677</v>
+        <v>16.49798839514165</v>
       </c>
       <c r="M4" t="n">
-        <v>17.2483452396485</v>
+        <v>17.39481557401415</v>
       </c>
       <c r="N4" t="n">
-        <v>16.83821814179687</v>
+        <v>16.9812057389886</v>
       </c>
       <c r="O4" t="n">
-        <v>15.55281979853013</v>
+        <v>15.68489198774994</v>
       </c>
       <c r="P4" t="n">
-        <v>13.30812417028844</v>
+        <v>13.42113474434171</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.213855361735334</v>
+        <v>9.292098025415784</v>
       </c>
       <c r="R4" t="n">
-        <v>4.947533234083481</v>
+        <v>4.989546936674243</v>
       </c>
       <c r="S4" t="n">
-        <v>1.917594259955122</v>
+        <v>1.93387817986343</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4701456975372495</v>
+        <v>0.4741381035658905</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006001859968560641</v>
+        <v>0.006052826854032653</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32786,7 +32788,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33980,7 +33982,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34138,7 +34140,7 @@
         <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
         <v>781.7148990095022</v>
@@ -34153,7 +34155,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806949</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34375,7 +34377,7 @@
         <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
         <v>781.7148990095022</v>
@@ -34460,13 +34462,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>6.876045741711437</v>
@@ -35179,7 +35181,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.598225711743297</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427824</v>
@@ -36367,16 +36369,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>657.5014708636215</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>544.8332927582306</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>728.4729760499208</v>
       </c>
       <c r="M26" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>793.1038834872188</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,13 +36837,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>456.6075901479896</v>
       </c>
       <c r="M29" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>778.3512449206466</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509644</v>
@@ -36850,7 +36852,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37075,10 +37077,10 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>913.5837591621208</v>
+        <v>714.8752732652987</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509644</v>
@@ -37087,10 +37089,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597809</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37552,7 +37554,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37628,7 +37630,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38108,13 +38110,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
